--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/CodeSystem-jp-medicationcode-hot13-cs.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/CodeSystem-jp-medicationcode-hot13-cs.xlsx
@@ -23,7 +23,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationCodeHOT13_CS</t>
+    <t>urn:oid:1.2.392.200119.4.402.1</t>
   </si>
   <si>
     <t>Identifier</t>
